--- a/examples/shortest-path.xlsx
+++ b/examples/shortest-path.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snra\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snram\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
-    <sheet name="arcs" sheetId="1" r:id="rId2"/>
+    <sheet name="links" sheetId="1" r:id="rId2"/>
     <sheet name="scale" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -427,17 +427,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -454,7 +454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -548,16 +548,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -591,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -608,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -625,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -642,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -659,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -676,19 +678,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -708,17 +710,17 @@
       <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -726,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -742,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -750,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -758,12 +760,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -771,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -779,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -787,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -795,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
